--- a/biology/Mycologie/Clavaire_blonde/Clavaire_blonde.xlsx
+++ b/biology/Mycologie/Clavaire_blonde/Clavaire_blonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavaire jaunâtre, Clavaire blonde, Clavaire lumineuse
 Clavulinopsis helvola, de son nom vernaculaire la Clavaire jaunâtre, est un champignon agaricomycète du genre Clavulinopsis et de la famille des Clavariaceae.
@@ -512,13 +524,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Clavulinopsis helvola (Pers.) Corner 1950[1]
-Basionyme
-Clavaria helvola Pers. [as 'helveola'] 1797[2]
-Synonymes
-Clavaria dissipabilis Britzelm. 1887 (synonym)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clavulinopsis helvola (Pers.) Corner 1950
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clavaire_blonde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavaire_blonde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Basionyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clavaria helvola Pers. [as 'helveola'] 1797
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clavaire_blonde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavaire_blonde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Clavaria dissipabilis Britzelm. 1887 (synonym)
 Clavaria flammans Berk. 1873 (synonym)
 Clavaria helvola Pers. 1797 (synonym)
 Clavaria helvola helvola Pers. 1797 (synonym)
@@ -529,31 +613,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Clavaire_blonde</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clavaire_blonde</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sans intérêt car trop petite.
 </t>
